--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1832231.982278199</v>
+        <v>1830344.400761798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.823190303973417</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>223.2017705496293</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.13267830032996</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>124.1699884042478</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>75.0080554185453</v>
+        <v>130.4283615399083</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78.31629253725407</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.714056408044621</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>305.389215416671</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>179.5744088168362</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274114</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.01153903325434</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>33.92757820193509</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>58.68733419778775</v>
       </c>
       <c r="F16" t="n">
-        <v>127.051436090731</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>134.974135284335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>229.8683199314703</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>270.142132893359</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>183.4653217847139</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>157.2425576766694</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>208.0064100872511</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>161.4046520073173</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>17.89742648403935</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965528</v>
       </c>
       <c r="E31" t="n">
-        <v>19.67402846883163</v>
+        <v>91.2307060180121</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.71057173897906</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>112.1748827905851</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789644</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415127</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.08070321196</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.08070321196</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D2" t="n">
-        <v>1261.81500460521</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="E2" t="n">
-        <v>1261.81500460521</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>850.8290998156024</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>432.8652917137892</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>710.8232485495353</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>562.6765899837193</v>
+        <v>602.704753495073</v>
       </c>
       <c r="S4" t="n">
-        <v>562.6765899837193</v>
+        <v>602.704753495073</v>
       </c>
       <c r="T4" t="n">
-        <v>562.6765899837193</v>
+        <v>602.704753495073</v>
       </c>
       <c r="U4" t="n">
-        <v>562.6765899837193</v>
+        <v>602.704753495073</v>
       </c>
       <c r="V4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.371763268271</v>
+        <v>2036.885894456657</v>
       </c>
       <c r="C5" t="n">
-        <v>1765.409246327859</v>
+        <v>1667.923377516245</v>
       </c>
       <c r="D5" t="n">
-        <v>1407.143547721109</v>
+        <v>1309.657678909495</v>
       </c>
       <c r="E5" t="n">
-        <v>1021.355295122865</v>
+        <v>923.8694263112502</v>
       </c>
       <c r="F5" t="n">
-        <v>610.3693903332571</v>
+        <v>512.8835215216427</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694739</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694739</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694739</v>
+        <v>574.2607726647607</v>
       </c>
       <c r="E7" t="n">
-        <v>290.7987205870808</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F7" t="n">
-        <v>290.7987205870808</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694739</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694739</v>
+        <v>724.3774120770964</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694739</v>
+        <v>724.3774120770964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.851790143458</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C8" t="n">
-        <v>1639.851790143458</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>1639.851790143458</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1254.063537545214</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>843.0776327556064</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1953.491734785137</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1600.723079515023</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1227.257321253943</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>837.1179892781316</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5124,16 +5124,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.4711712918559</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C13" t="n">
-        <v>121.4711712918559</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>121.4711712918559</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4711712918559</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>121.4711712918559</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>121.4711712918559</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570735</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201129</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220956</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.1196361220956</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5309,13 +5309,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,19 +5358,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.3537517307266</v>
+        <v>324.6725486937862</v>
       </c>
       <c r="C16" t="n">
-        <v>635.4175688028196</v>
+        <v>324.6725486937862</v>
       </c>
       <c r="D16" t="n">
-        <v>635.4175688028196</v>
+        <v>324.6725486937862</v>
       </c>
       <c r="E16" t="n">
-        <v>487.5044752204265</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609663</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609663</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609663</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X16" t="n">
-        <v>986.0022165609663</v>
+        <v>727.1135926675562</v>
       </c>
       <c r="Y16" t="n">
-        <v>986.0022165609663</v>
+        <v>506.3210135240259</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>549.3807322743206</v>
+        <v>822.1480540508777</v>
       </c>
       <c r="C19" t="n">
-        <v>380.4445493464136</v>
+        <v>822.1480540508777</v>
       </c>
       <c r="D19" t="n">
-        <v>380.4445493464136</v>
+        <v>822.1480540508777</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684846</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705742</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5707,16 +5707,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045604</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="X19" t="n">
-        <v>731.0291971045604</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.0291971045604</v>
+        <v>822.1480540508777</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>565.9270610048578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>565.9270610048578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925221</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925221</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1002.260014040985</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V22" t="n">
-        <v>747.5755258350976</v>
+        <v>731.3177283550797</v>
       </c>
       <c r="W22" t="n">
-        <v>747.5755258350976</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>747.5755258350976</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>747.5755258350976</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,22 +6014,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1340.085404217832</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.085404217832</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>464.8996181017264</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>464.8996181017264</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1335.881268530309</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1112.095853319815</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>822.967214533373</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>568.2827263274861</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W28" t="n">
-        <v>278.8655562905255</v>
+        <v>643.8194987924323</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>415.829947894415</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030887</v>
+        <v>546.5704195584495</v>
       </c>
       <c r="C31" t="n">
-        <v>565.4200295030887</v>
+        <v>546.5704195584495</v>
       </c>
       <c r="D31" t="n">
-        <v>471.0642553721241</v>
+        <v>452.2146454274846</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430013</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818944</v>
+        <v>957.994667138697</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>785.7659815220504</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030887</v>
+        <v>672.4580191073185</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,13 +6883,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6914,49 +6914,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7184,25 +7184,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,16 +7239,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229673</v>
@@ -7315,25 +7315,25 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7397,61 +7397,61 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571605</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636243</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571606</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636245</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7786,31 +7786,31 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,16 +7837,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,19 +8772,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776768</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298487</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208078</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>124.9022893342818</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6570751501597</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>87.74662844878142</v>
       </c>
       <c r="F16" t="n">
-        <v>18.36961193220023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>11.45982736223419</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>22.26932339235771</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.09521950521832</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>103.0576765518771</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.67825230693387</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>78.51658824933992</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>36.51615797628597</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>200.6872268680554</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.55667754918038</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437417</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>51.20651393295263</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-8.404388424098193e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="11">
@@ -26317,19 +26317,19 @@
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="F2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="F2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
@@ -26338,10 +26338,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>508527.6716815877</v>
+        <v>508527.6716815879</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="M2" t="n">
         <v>513151.1061651765</v>
@@ -26350,10 +26350,10 @@
         <v>513151.1061651765</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651763</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651763</v>
+        <v>513151.1061651765</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.068502520023717e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563568</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275953</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275963</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275965</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,10 +26482,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26503,10 +26503,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639997</v>
+        <v>-316450.8093639998</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505452</v>
+        <v>273517.0698505453</v>
       </c>
       <c r="D6" t="n">
         <v>273517.0698505453</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749161</v>
+        <v>-143504.1665008882</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019802</v>
+        <v>381655.8699760079</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019801</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019801</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019802</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093872</v>
+        <v>205232.650783415</v>
       </c>
       <c r="K6" t="n">
-        <v>334526.5657128835</v>
+        <v>334508.0719749495</v>
       </c>
       <c r="L6" t="n">
-        <v>367628.6366815246</v>
+        <v>367628.6366815247</v>
       </c>
       <c r="M6" t="n">
-        <v>243170.5282485542</v>
+        <v>243170.5282485544</v>
       </c>
       <c r="N6" t="n">
+        <v>377971.5434823916</v>
+      </c>
+      <c r="O6" t="n">
         <v>377971.5434823915</v>
       </c>
-      <c r="O6" t="n">
-        <v>377971.5434823916</v>
-      </c>
       <c r="P6" t="n">
-        <v>333808.9381795456</v>
+        <v>333808.9381795458</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054540999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054540999</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.585628150029647e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.585628150029647e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>379.1071797682883</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>100.7210022147279</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.99007165458435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.49520357590998</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>338.7761146022497</v>
+        <v>283.3558084808867</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>88.99350972179684</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>25.40869354686968</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>108.3949546041239</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>36.87391154082161</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35492,19 +35492,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35726,22 +35726,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,7 +36057,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187476</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092013</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523322</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686859</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502434</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
